--- a/Imgs_Jogos/Infomacoes_Jogos.xlsx
+++ b/Imgs_Jogos/Infomacoes_Jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Luz\Desktop\Blue\Repositório Módulo 1\GitHub\projeto-gameflix-blue\Imgs_Jogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78FD071-1840-495E-BD37-D22FA8100A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2403C31F-4F02-49BC-B04B-A5805BCA5440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>Nome</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>6.6</t>
-  </si>
-  <si>
-    <t>MMO</t>
   </si>
   <si>
     <t>KOG-Studios</t>
@@ -276,10 +273,6 @@
     <t>https://youtu.be/A1u7paHS740</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Mobile Legends: Bang Bang</t>
-  </si>
-  <si>
     <t>Junte seus amigos em um novo confronto MOBA 5v5 contra adversários reais, Mobile Legends: Bang Bang! Escolha seus heróis favoritos e monte uma equipe perfeita! Combinação em 10 segundos, batalhas de 10 minutos.
 Rotas, selva, destruir torres, batalhas em equipe... Toda a diversão de jogos de ação e MOBA de PC na palma da sua mão! Explore seu espírito eSportivo!</t>
   </si>
@@ -306,6 +299,43 @@
   </si>
   <si>
     <t>Gameforge</t>
+  </si>
+  <si>
+    <t>Aura Kingdom</t>
+  </si>
+  <si>
+    <t>X-Legend</t>
+  </si>
+  <si>
+    <t>MMORPG</t>
+  </si>
+  <si>
+    <t>Aura Kingdom oferece um mundo grande e bonito para todos os jogadores poderem explorar.
+Começando com uma das onze diferentes classes, o Aura Kingdom oferece a possibilidade para os jogadores de selecionar uma sub-classe, uma vez que atingir o nível necessário, permitindo inúmeras compilações originais! Os jogadores também vão caminhar com os seus Eidolons em sua jornada, companheiros interativos leais que concedem a força para desencadear combos enormes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plants vs. Zombies Heroes </t>
+  </si>
+  <si>
+    <t>Electronic Arts</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLwRn0oI0C4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VRObWXctpNY</t>
+  </si>
+  <si>
+    <t>Colecione Heróis com superpoderes tão espalhafatosos quanto incríveis e monte sua equipe suprema de batalha. Embarque em uma jornada para descobrir novos personagens e enfrente adversários poderosos pelo caminho. E, pela primeiríssima vez em dispositivos móveis, jogue como planta ou zumbi. É uma batalha nova em folha!</t>
+  </si>
+  <si>
+    <t>Card Game</t>
+  </si>
+  <si>
+    <t>Mobile Legends : Bang Bang</t>
   </si>
 </sst>
 </file>
@@ -343,10 +373,34 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -358,20 +412,24 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -655,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,482 +724,521 @@
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="1">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="1">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2018</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2017</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2008</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2008</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="4">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2016</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2020</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="2">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2004</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F18" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F10">
-        <v>2011</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="H18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="2">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2013</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="2">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2008</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2020</v>
-      </c>
-      <c r="G13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="2">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2016</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="2">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2016</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="2">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2011</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H18">
+    <sortCondition ref="A2:A18"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{F35E6558-E9DF-42EB-A5EA-E18F5987E459}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{300F577A-606C-432E-BC4C-805E96064987}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{C4D2B144-BC46-4545-A3DD-F0337056BDB7}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{DD60A14B-EF83-4614-995C-B01726297675}"/>
-    <hyperlink ref="H2" r:id="rId5" xr:uid="{4C4B52E1-9A71-4232-9A54-2B3084C5B5AD}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{5B2F06BF-1BE2-43DE-AA01-714AAEF01658}"/>
-    <hyperlink ref="H8" r:id="rId7" xr:uid="{1016F310-E8B8-4589-BA4B-8091B56EC25D}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{8D65B62B-D3EB-47D7-945D-F2D91A86163A}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{C89A6313-AD85-49D1-B726-E0C84F69E9C9}"/>
-    <hyperlink ref="H11" r:id="rId10" xr:uid="{8905FEB3-51C4-49EB-BD59-858AEE97E3DA}"/>
-    <hyperlink ref="H12" r:id="rId11" xr:uid="{88682465-DB4D-41B4-8EB9-4356A2DF64A6}"/>
-    <hyperlink ref="H13" r:id="rId12" xr:uid="{A434EE62-6E0C-4D63-BA2E-97935A6752A2}"/>
-    <hyperlink ref="H14" r:id="rId13" xr:uid="{46B3D922-F956-492F-A141-6B3C51DDFA22}"/>
-    <hyperlink ref="H15" r:id="rId14" xr:uid="{F5967909-8054-4D88-9237-2B320F9F8B8E}"/>
+    <hyperlink ref="H17" r:id="rId1" xr:uid="{F35E6558-E9DF-42EB-A5EA-E18F5987E459}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{300F577A-606C-432E-BC4C-805E96064987}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{C4D2B144-BC46-4545-A3DD-F0337056BDB7}"/>
+    <hyperlink ref="H14" r:id="rId4" xr:uid="{DD60A14B-EF83-4614-995C-B01726297675}"/>
+    <hyperlink ref="H9" r:id="rId5" xr:uid="{4C4B52E1-9A71-4232-9A54-2B3084C5B5AD}"/>
+    <hyperlink ref="H5" r:id="rId6" xr:uid="{5B2F06BF-1BE2-43DE-AA01-714AAEF01658}"/>
+    <hyperlink ref="H6" r:id="rId7" xr:uid="{1016F310-E8B8-4589-BA4B-8091B56EC25D}"/>
+    <hyperlink ref="H12" r:id="rId8" xr:uid="{8D65B62B-D3EB-47D7-945D-F2D91A86163A}"/>
+    <hyperlink ref="H18" r:id="rId9" xr:uid="{C89A6313-AD85-49D1-B726-E0C84F69E9C9}"/>
+    <hyperlink ref="H3" r:id="rId10" xr:uid="{8905FEB3-51C4-49EB-BD59-858AEE97E3DA}"/>
+    <hyperlink ref="H11" r:id="rId11" xr:uid="{88682465-DB4D-41B4-8EB9-4356A2DF64A6}"/>
+    <hyperlink ref="H2" r:id="rId12" xr:uid="{A434EE62-6E0C-4D63-BA2E-97935A6752A2}"/>
+    <hyperlink ref="H8" r:id="rId13" xr:uid="{46B3D922-F956-492F-A141-6B3C51DDFA22}"/>
+    <hyperlink ref="H13" r:id="rId14" xr:uid="{F5967909-8054-4D88-9237-2B320F9F8B8E}"/>
     <hyperlink ref="H16" r:id="rId15" xr:uid="{570C8821-75E4-419D-B6AA-6FDE4D4B5396}"/>
+    <hyperlink ref="H4" r:id="rId16" xr:uid="{266425EE-6B38-43CE-AD64-6761F1300C12}"/>
+    <hyperlink ref="H15" r:id="rId17" xr:uid="{DE0FF6B7-448A-430F-91ED-8AAFD0755B56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Imgs_Jogos/Infomacoes_Jogos.xlsx
+++ b/Imgs_Jogos/Infomacoes_Jogos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Luz\Desktop\Blue\Repositório Módulo 1\GitHub\projeto-gameflix-blue\Imgs_Jogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2403C31F-4F02-49BC-B04B-A5805BCA5440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF50A895-CBF0-442B-A6AC-AF6C5CD0DC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="118">
   <si>
     <t>Nome</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Nota Metacritc</t>
   </si>
   <si>
-    <t>Classificação</t>
-  </si>
-  <si>
     <t>Genero</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
   </si>
   <si>
     <t>9.5</t>
-  </si>
-  <si>
-    <t>Ação</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=CJ_GCPaKywg</t>
@@ -206,9 +200,6 @@
     <t>https://www.youtube.com/watch?v=DHHcM6aHPnE</t>
   </si>
   <si>
-    <t>Assassin´s Creed – Black Flag</t>
-  </si>
-  <si>
     <t>Assassin’s Creed 4: Black Flag é o mais recente título de uma das franquias de maior sucesso da atualidade. O game da Ubisoft transporta o jogador para um tema nunca antes abordado pela série: piratas. O jogo está disponível tanto para os consoles da nova geração, Xbox One e PS4 quanto para PlayStation 3, Xbox 360, PC e Wii U. Navegue pelos mares caribenhos e se aventure neste repleto mundo aberto na pele do pirata Edward Kenway.</t>
   </si>
   <si>
@@ -336,6 +327,69 @@
   </si>
   <si>
     <t>Mobile Legends : Bang Bang</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>Blizzard Entertainment</t>
+  </si>
+  <si>
+    <t>Diablo II: Resurrected</t>
+  </si>
+  <si>
+    <t>Diablo 2 é um RPG dividido em 4 atos, com seus cenários vastos para sua exploração. O seu objetivo assim como seu antecessor é eliminar as hordas de monstros, juntamente com os outros senhores do inferno, apresentados em cada atos do jogo ligados com cenas cinematográficas impressionantes. Hoje 20 anos depois, surge com sua forma remasterizada para todas as plataformas, além de gráficos em até 4k, além de melhorias em sua jogabilidade.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NxgSXPj75m4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-wYSsnKRbRY</t>
+  </si>
+  <si>
+    <t>Resident Evil / Biohazard - HD Remaster</t>
+  </si>
+  <si>
+    <t>Descrição:  Uma obra-prima criada por Shinji Mikami. Jogo começa com uma das mains icônicas openings até hoje, onde os membros da S.T.A.R.S – uma equipe de resgate foi enviada para investigar da equipe Alpha desaparecidos pela floresta de Raccoon City. Assumindo o controle dos agentes Chris Redfield ou Jill Valentine descubra os segredos por trás de uma instalação de pesquisa genética radical. Com uma série de armas para dominar e horrores em cada esquina, o teste final pode ser apenas para sair vivo.</t>
+  </si>
+  <si>
+    <t>Survival Horror</t>
+  </si>
+  <si>
+    <t>Capcom</t>
+  </si>
+  <si>
+    <t>Ghost of Tsushima</t>
+  </si>
+  <si>
+    <t>O ano é 1274. Guerreiros samurais são os lendários defensores do Japão, até que o temível Império Mongol invade a ilha de Tsushima, causando estragos e conquistando a população local. Como um dos últimos samurais sobreviventes, você se levanta das cinzas para lutar. Mas táticas honrosas não o levarão à vitória. Você deve ir além de suas tradições samurais para forjar uma nova maneira de lutar, o caminho do Fantasma, enquanto trava uma guerra não convencional pela liberdade do Japão.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iqysmS4lxwQ</t>
+  </si>
+  <si>
+    <t>Action Adventure</t>
+  </si>
+  <si>
+    <t>Parasite Eve</t>
+  </si>
+  <si>
+    <t>Um deles é um policial. O outro está possuído por um antigo mal ameaçando toda a vida na Terra. O terrível vínculo entre eles continuará até que algo morra. Uma aventura arrepiante que só poderia vir dos criadores de Final Fantasy VII. Um conto épico de ficção científica contada através de impressionantes sequências renderizadas em 3D. Monstros mutantes de batalha em combate de polígono em tempo real. Personalize armas, armaduras e habilidades de caráter.</t>
+  </si>
+  <si>
+    <t>SquareSoft</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WLQCY3_DK58</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>Classificação (Anos)</t>
+  </si>
+  <si>
+    <t>Assassin´s Creed IV– Black Flag</t>
   </si>
 </sst>
 </file>
@@ -410,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -428,6 +482,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -711,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,511 +794,601 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1">
         <v>2020</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1">
         <v>2013</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1">
         <v>2013</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D5" s="1">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1">
         <v>2016</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D6" s="1">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1">
         <v>2020</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1">
         <v>2008</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="1">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="1">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2016</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2018</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="10" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
+      <c r="A10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1">
         <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F10" s="1">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2004</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1">
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F13" s="1">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1">
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F15" s="1">
         <v>2016</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>86</v>
+      <c r="A16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D16" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F16" s="1">
-        <v>2011</v>
+        <v>1998</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="2">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="1">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="H22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H18">
-    <sortCondition ref="A2:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H22">
+    <sortCondition ref="A2:A22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H17" r:id="rId1" xr:uid="{F35E6558-E9DF-42EB-A5EA-E18F5987E459}"/>
+    <hyperlink ref="H21" r:id="rId1" xr:uid="{F35E6558-E9DF-42EB-A5EA-E18F5987E459}"/>
     <hyperlink ref="H7" r:id="rId2" xr:uid="{300F577A-606C-432E-BC4C-805E96064987}"/>
-    <hyperlink ref="H10" r:id="rId3" xr:uid="{C4D2B144-BC46-4545-A3DD-F0337056BDB7}"/>
-    <hyperlink ref="H14" r:id="rId4" xr:uid="{DD60A14B-EF83-4614-995C-B01726297675}"/>
-    <hyperlink ref="H9" r:id="rId5" xr:uid="{4C4B52E1-9A71-4232-9A54-2B3084C5B5AD}"/>
+    <hyperlink ref="H12" r:id="rId3" xr:uid="{C4D2B144-BC46-4545-A3DD-F0337056BDB7}"/>
+    <hyperlink ref="H17" r:id="rId4" xr:uid="{DD60A14B-EF83-4614-995C-B01726297675}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{4C4B52E1-9A71-4232-9A54-2B3084C5B5AD}"/>
     <hyperlink ref="H5" r:id="rId6" xr:uid="{5B2F06BF-1BE2-43DE-AA01-714AAEF01658}"/>
     <hyperlink ref="H6" r:id="rId7" xr:uid="{1016F310-E8B8-4589-BA4B-8091B56EC25D}"/>
-    <hyperlink ref="H12" r:id="rId8" xr:uid="{8D65B62B-D3EB-47D7-945D-F2D91A86163A}"/>
-    <hyperlink ref="H18" r:id="rId9" xr:uid="{C89A6313-AD85-49D1-B726-E0C84F69E9C9}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{8D65B62B-D3EB-47D7-945D-F2D91A86163A}"/>
+    <hyperlink ref="H22" r:id="rId9" xr:uid="{C89A6313-AD85-49D1-B726-E0C84F69E9C9}"/>
     <hyperlink ref="H3" r:id="rId10" xr:uid="{8905FEB3-51C4-49EB-BD59-858AEE97E3DA}"/>
-    <hyperlink ref="H11" r:id="rId11" xr:uid="{88682465-DB4D-41B4-8EB9-4356A2DF64A6}"/>
+    <hyperlink ref="H13" r:id="rId11" xr:uid="{88682465-DB4D-41B4-8EB9-4356A2DF64A6}"/>
     <hyperlink ref="H2" r:id="rId12" xr:uid="{A434EE62-6E0C-4D63-BA2E-97935A6752A2}"/>
-    <hyperlink ref="H8" r:id="rId13" xr:uid="{46B3D922-F956-492F-A141-6B3C51DDFA22}"/>
-    <hyperlink ref="H13" r:id="rId14" xr:uid="{F5967909-8054-4D88-9237-2B320F9F8B8E}"/>
-    <hyperlink ref="H16" r:id="rId15" xr:uid="{570C8821-75E4-419D-B6AA-6FDE4D4B5396}"/>
+    <hyperlink ref="H9" r:id="rId13" xr:uid="{46B3D922-F956-492F-A141-6B3C51DDFA22}"/>
+    <hyperlink ref="H15" r:id="rId14" xr:uid="{F5967909-8054-4D88-9237-2B320F9F8B8E}"/>
+    <hyperlink ref="H20" r:id="rId15" xr:uid="{570C8821-75E4-419D-B6AA-6FDE4D4B5396}"/>
     <hyperlink ref="H4" r:id="rId16" xr:uid="{266425EE-6B38-43CE-AD64-6761F1300C12}"/>
-    <hyperlink ref="H15" r:id="rId17" xr:uid="{DE0FF6B7-448A-430F-91ED-8AAFD0755B56}"/>
+    <hyperlink ref="H18" r:id="rId17" xr:uid="{DE0FF6B7-448A-430F-91ED-8AAFD0755B56}"/>
+    <hyperlink ref="H8" r:id="rId18" xr:uid="{C5AD9B38-D0B9-45E5-A8AF-BDEBF23EF1C7}"/>
+    <hyperlink ref="H19" r:id="rId19" xr:uid="{5B44584A-DCC2-4982-AF42-293970BC623A}"/>
+    <hyperlink ref="H10" r:id="rId20" xr:uid="{8A3114F9-D578-4EAA-ABEB-424D3EC76415}"/>
+    <hyperlink ref="H16" r:id="rId21" xr:uid="{7C2C4F47-4769-4C09-9CFB-3E97637532D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId22"/>
 </worksheet>
 </file>